--- a/config_Release/lwzb_freestyle_server.xlsx
+++ b/config_Release/lwzb_freestyle_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>id|行号</t>
   </si>
@@ -180,218 +180,265 @@
     <t>prop_lwzb_bet_13</t>
   </si>
   <si>
+    <t>base_limit|4个神兽的押注限制</t>
+  </si>
+  <si>
+    <t>my_total_bet_limit|我的自身的上限（0-100）</t>
+  </si>
+  <si>
+    <t>total_bet_limit</t>
+  </si>
+  <si>
+    <t>permission_key</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_1</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_2</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_3</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_4</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_5</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_6</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_7</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_8</t>
+  </si>
+  <si>
+    <t>lwzb_bet_limit_9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>enter_cfg_id|配置id（与条件）</t>
+  </si>
+  <si>
+    <t>asset_type|财富类型</t>
+  </si>
+  <si>
+    <t>asset_count|财富数量</t>
+  </si>
+  <si>
+    <t>judge_type|判断方式</t>
+  </si>
+  <si>
+    <t>| 判断类型说明-这个表只填范围，不能填类型1</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
+    <t>1 - 消费：必须大于等于，并扣除</t>
+  </si>
+  <si>
+    <t>2 - 等于</t>
+  </si>
+  <si>
+    <t>loss_money|损失的钱数</t>
+  </si>
+  <si>
+    <t>ctl_gailv|控制的概率%</t>
+  </si>
+  <si>
+    <t>pai_type|牌类型</t>
+  </si>
+  <si>
+    <t>power|权重</t>
+  </si>
+  <si>
+    <t>type|类型</t>
+  </si>
+  <si>
+    <t>percent|百分比</t>
+  </si>
+  <si>
+    <t>id|序号</t>
+  </si>
+  <si>
+    <t>start_time|开始时间整点小时</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+  </si>
+  <si>
+    <t>num_min|最小数量</t>
+  </si>
+  <si>
+    <t>num_max|最大数量</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>lucky_star</t>
+  </si>
+  <si>
+    <t>|备注</t>
+  </si>
+  <si>
     <t>prop_lwzb_bet_14</t>
-  </si>
-  <si>
-    <t>base_limit|4个神兽的押注限制</t>
-  </si>
-  <si>
-    <t>my_total_bet_limit|我的自身的上限（0-100）</t>
-  </si>
-  <si>
-    <t>total_bet_limit</t>
-  </si>
-  <si>
-    <t>permission_key</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>200000,200000,200000,200000</t>
-  </si>
-  <si>
-    <t>30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000,50000,50000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,500000,500000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,2000000,2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,200000,200000,200000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,800000,800000,800000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1000000,1000000,1000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,2000000,2000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,3000000,3000000,3000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000,4000000,4000000,4000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,5000000,5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,3000000,3000000,3000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,5000000,5000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000,6000000,6000000,6000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000000,8000000,8000000,8000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,10000000,10000000,10000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,20000000,20000000,20000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,30000000,30000000,30000000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>200000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_1</t>
-  </si>
-  <si>
-    <t>500000,500000,500000,500000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>500000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_2</t>
-  </si>
-  <si>
-    <t>1000000,1000000,1000000,1000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_3</t>
-  </si>
-  <si>
-    <t>2000000,2000000,2000000,2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_4</t>
-  </si>
-  <si>
-    <t>3000000,3000000,3000000,3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_5</t>
-  </si>
-  <si>
-    <t>4000000,4000000,4000000,4000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_6</t>
-  </si>
-  <si>
-    <t>5000000,5000000,5000000,5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_7</t>
-  </si>
-  <si>
-    <t>8000000,8000000,8000000,8000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_8</t>
-  </si>
-  <si>
-    <t>10000000,10000000,10000000,10000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10000000</t>
-  </si>
-  <si>
-    <t>lwzb_bet_limit_9</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20000000,20000000,20000000,20000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>20000000</t>
-  </si>
-  <si>
-    <t>30000000,30000000,30000000,30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>30000000</t>
-  </si>
-  <si>
-    <t>40000000,40000000,40000000,40000000</t>
-  </si>
-  <si>
-    <t>40000000</t>
-  </si>
-  <si>
-    <t>50000000,50000000,50000000,50000000</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>80000000,80000000,80000000,80000000</t>
-  </si>
-  <si>
-    <t>80000000</t>
-  </si>
-  <si>
-    <t>100000000,100000000,100000000,100000000</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>enter_cfg_id|配置id（与条件）</t>
-  </si>
-  <si>
-    <t>asset_type|财富类型</t>
-  </si>
-  <si>
-    <t>asset_count|财富数量</t>
-  </si>
-  <si>
-    <t>judge_type|判断方式</t>
-  </si>
-  <si>
-    <t>| 判断类型说明-这个表只填范围，不能填类型1</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>1 - 消费：必须大于等于，并扣除</t>
-  </si>
-  <si>
-    <t>2 - 等于</t>
-  </si>
-  <si>
-    <t>loss_money|损失的钱数</t>
-  </si>
-  <si>
-    <t>ctl_gailv|控制的概率%</t>
-  </si>
-  <si>
-    <t>pai_type|牌类型</t>
-  </si>
-  <si>
-    <t>power|权重</t>
-  </si>
-  <si>
-    <t>type|类型</t>
-  </si>
-  <si>
-    <t>percent|百分比</t>
-  </si>
-  <si>
-    <t>id|序号</t>
-  </si>
-  <si>
-    <t>start_time|开始时间整点小时</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-  </si>
-  <si>
-    <t>num_min|最小数量</t>
-  </si>
-  <si>
-    <t>num_max|最大数量</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>lucky_star</t>
-  </si>
-  <si>
-    <t>|备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +480,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -454,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -505,12 +568,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,10 +667,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="链接单元格" xfId="2" builtinId="24"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1289,13 +1371,13 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,7 +2148,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C9" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2097,14 +2179,14 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="28">
         <v>100</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -2112,14 +2194,14 @@
       </c>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="28">
         <v>1000</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2130,14 +2212,14 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="28">
         <v>10000</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -2148,14 +2230,14 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="28">
         <v>100000</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -2164,14 +2246,14 @@
       <c r="E5" s="11"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="28">
         <v>10000</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -2179,14 +2261,14 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="28">
         <v>100000</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -2194,14 +2276,14 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="28">
         <v>500000</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -2209,22 +2291,22 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="28">
         <v>5000000</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2347,7 +2429,7 @@
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2356,7 +2438,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2375,16 +2457,16 @@
         <v>40</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2392,19 +2474,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2412,19 +2494,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2432,19 +2514,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>64</v>
+      <c r="E4" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2452,19 +2534,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>67</v>
+      <c r="E5" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2472,19 +2554,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>70</v>
+      <c r="E6" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2492,19 +2574,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
+      <c r="E7" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2512,19 +2594,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>76</v>
+      <c r="E8" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2532,19 +2614,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>79</v>
+      <c r="E9" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2552,19 +2634,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>82</v>
+      <c r="E10" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,19 +2654,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2592,19 +2674,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2612,19 +2694,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>82</v>
+        <v>55</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2632,19 +2714,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2652,19 +2734,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2672,19 +2754,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>89</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2692,19 +2774,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>92</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2712,19 +2794,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>93</v>
+        <v>65</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>94</v>
+        <v>55</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2732,25 +2814,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>96</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2779,19 +2862,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5">
         <v>3000</v>
@@ -2811,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2822,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5">
         <v>500000</v>
@@ -2831,7 +2914,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2847,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2868,10 +2951,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -2887,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>200000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D2" s="8">
         <v>10</v>
@@ -2901,123 +2984,35 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>300000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D3" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>400000000</v>
-      </c>
-      <c r="D4" s="8">
-        <v>30</v>
-      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>500000000</v>
-      </c>
-      <c r="D5" s="8">
-        <v>40</v>
-      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>600000000</v>
-      </c>
-      <c r="D6" s="8">
-        <v>50</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>700000000</v>
-      </c>
-      <c r="D7" s="8">
-        <v>60</v>
-      </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>800000000</v>
-      </c>
-      <c r="D8" s="8">
-        <v>70</v>
-      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>900000000</v>
-      </c>
-      <c r="D9" s="8">
-        <v>80</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1000000000</v>
-      </c>
-      <c r="D10" s="8">
-        <v>90</v>
-      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1100000000</v>
-      </c>
-      <c r="D11" s="8">
-        <v>100</v>
-      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
@@ -3042,30 +3037,6 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3096,10 +3067,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3495,13 +3466,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3687,19 +3658,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3965,19 +3936,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3996,9 +3957,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4018,6 +3977,22 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4027,12 +4002,8 @@
 </settings>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4050,7 +4021,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4068,7 +4039,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4077,7 +4048,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/config_Release/lwzb_freestyle_server.xlsx
+++ b/config_Release/lwzb_freestyle_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>lwzb_bet_limit_1</t>
   </si>
   <si>
@@ -431,6 +428,23 @@
   </si>
   <si>
     <t>30000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -672,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -952,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,8 +1031,8 @@
       <c r="F2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5">
-        <v>1</v>
+      <c r="G2" s="29">
+        <v>0</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
@@ -1039,8 +1056,8 @@
       <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
+      <c r="G3" s="29">
+        <v>0</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -1371,13 +1388,13 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2147,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C2:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2302,7 +2319,7 @@
         <v>5000000</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="16"/>
     </row>
@@ -2438,7 +2455,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2477,16 +2494,16 @@
         <v>54</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2497,16 +2514,16 @@
         <v>54</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>55</v>
+        <v>91</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2517,16 +2534,16 @@
         <v>54</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2537,16 +2554,16 @@
         <v>54</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>92</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2557,16 +2574,16 @@
         <v>54</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2577,16 +2594,16 @@
         <v>54</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2597,16 +2614,16 @@
         <v>54</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>55</v>
+        <v>95</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2617,16 +2634,16 @@
         <v>54</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2637,16 +2654,16 @@
         <v>54</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2654,19 +2671,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2674,19 +2691,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2694,19 +2711,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>55</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2714,19 +2731,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2734,19 +2751,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>55</v>
+        <v>100</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2754,19 +2771,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>55</v>
+        <v>101</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2774,19 +2791,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>55</v>
+        <v>102</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2794,19 +2811,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>55</v>
+        <v>103</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2814,19 +2831,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
+        <v>104</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2862,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2885,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5">
         <v>3000</v>
@@ -2894,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2905,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5">
         <v>500000</v>
@@ -2914,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2951,10 +2968,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -3067,10 +3084,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,13 +3483,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3658,19 +3675,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3942,6 +3959,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="5" master=""/>
@@ -3956,11 +3987,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="5"/>
@@ -3976,7 +4003,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
@@ -3992,16 +4019,6 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
@@ -4012,7 +4029,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4030,6 +4047,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -4038,20 +4064,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config_Release/lwzb_freestyle_server.xlsx
+++ b/config_Release/lwzb_freestyle_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -970,7 +970,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -3953,9 +3953,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3969,22 +3967,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4004,23 +4005,22 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="9" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="11" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="12" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="13" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="12" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4038,7 +4038,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4047,7 +4047,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4065,7 +4065,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
